--- a/Doc/QuickChatCommands.xlsx
+++ b/Doc/QuickChatCommands.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Source\Repos\AllegianceForms\Doc\Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Source\Repos\AllegianceForms\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="7965" firstSheet="6" activeTab="12" xr2:uid="{D8A1548F-FC7A-49AA-BDC4-CE3A13CE94A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="7965" firstSheet="10" activeTab="12" xr2:uid="{D8A1548F-FC7A-49AA-BDC4-CE3A13CE94A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="624">
   <si>
     <t>Quick Comms</t>
   </si>
@@ -479,9 +479,6 @@
     <t>Shall we begin?</t>
   </si>
   <si>
-    <t>Check you wing assignment.</t>
-  </si>
-  <si>
     <t>It's all good.</t>
   </si>
   <si>
@@ -668,9 +665,6 @@
     <t>Look, I don't have time for this.</t>
   </si>
   <si>
-    <t>Hey maybe you haven't been keeping up…</t>
-  </si>
-  <si>
     <t>What are we supposed to use man?</t>
   </si>
   <si>
@@ -752,9 +746,6 @@
     <t>You're dogmeat, pal!</t>
   </si>
   <si>
-    <t>Did Iqs just drop sharply while I was away?</t>
-  </si>
-  <si>
     <t>Now you see me, now you don't.</t>
   </si>
   <si>
@@ -767,9 +758,6 @@
     <t>We will not tolerate this behaviour.</t>
   </si>
   <si>
-    <t>Whoopee-do… hey I'm impressed!</t>
-  </si>
-  <si>
     <t>Death becomes you.</t>
   </si>
   <si>
@@ -890,9 +878,6 @@
     <t>Damn, I got podded.</t>
   </si>
   <si>
-    <t>Danger!</t>
-  </si>
-  <si>
     <t>He cloaked!</t>
   </si>
   <si>
@@ -950,12 +935,6 @@
     <t>Meet me at the jump point.</t>
   </si>
   <si>
-    <t>Capship waiting for turrents.</t>
-  </si>
-  <si>
-    <t>Bomber waiting for turrets!</t>
-  </si>
-  <si>
     <t>Is our base clear?</t>
   </si>
   <si>
@@ -1050,13 +1029,892 @@
   </si>
   <si>
     <t>Need defenders.</t>
+  </si>
+  <si>
+    <t>vo_player_awesome</t>
+  </si>
+  <si>
+    <t>vo_player_bye</t>
+  </si>
+  <si>
+    <t>vo_player_dang</t>
+  </si>
+  <si>
+    <t>vo_player_doah</t>
+  </si>
+  <si>
+    <t>vo_player_hi</t>
+  </si>
+  <si>
+    <t>vo_player_nicework</t>
+  </si>
+  <si>
+    <t>vo_player_nooo</t>
+  </si>
+  <si>
+    <t>vo_player_ohyeah</t>
+  </si>
+  <si>
+    <t>vo_player_pheww</t>
+  </si>
+  <si>
+    <t>vo_player_ripcording</t>
+  </si>
+  <si>
+    <t>vo_player_sweet</t>
+  </si>
+  <si>
+    <t>vo_player_watchfire</t>
+  </si>
+  <si>
+    <t>vo_player_yeeehaa</t>
+  </si>
+  <si>
+    <t>vo_player_defendbase</t>
+  </si>
+  <si>
+    <t>vo_player_attacktarget</t>
+  </si>
+  <si>
+    <t>vo_player_attack</t>
+  </si>
+  <si>
+    <t>vo_player_attackbase</t>
+  </si>
+  <si>
+    <t>vo_player_attackconstuctor</t>
+  </si>
+  <si>
+    <t>vo_player_attackfighter</t>
+  </si>
+  <si>
+    <t>vo_player_attackinterceptor</t>
+  </si>
+  <si>
+    <t>vo_player_attackcapital</t>
+  </si>
+  <si>
+    <t>vo_player_attackminer</t>
+  </si>
+  <si>
+    <t>vo_player_attackbomber</t>
+  </si>
+  <si>
+    <t>vo_player_attackripcord</t>
+  </si>
+  <si>
+    <t>vo_player_attackscout</t>
+  </si>
+  <si>
+    <t>vo_player_attackstealth</t>
+  </si>
+  <si>
+    <t>vo_player_attacktransport</t>
+  </si>
+  <si>
+    <t>vo_player_attacktower</t>
+  </si>
+  <si>
+    <t>vo_player_coverme</t>
+  </si>
+  <si>
+    <t>vo_player_defend</t>
+  </si>
+  <si>
+    <t>vo_player_defendbomber</t>
+  </si>
+  <si>
+    <t>vo_player_defendcapital</t>
+  </si>
+  <si>
+    <t>vo_player_defendconstuctor</t>
+  </si>
+  <si>
+    <t>vo_player_defenddefender</t>
+  </si>
+  <si>
+    <t>vo_player_defendfighter</t>
+  </si>
+  <si>
+    <t>vo_player_defendinterceptor</t>
+  </si>
+  <si>
+    <t>vo_player_defendminer</t>
+  </si>
+  <si>
+    <t>vo_player_defendripcord</t>
+  </si>
+  <si>
+    <t>vo_player_defendscout</t>
+  </si>
+  <si>
+    <t>vo_player_defendstealth</t>
+  </si>
+  <si>
+    <t>vo_player_defendtower</t>
+  </si>
+  <si>
+    <t>vo_player_defendtransport</t>
+  </si>
+  <si>
+    <t>vo_player_donatecredits</t>
+  </si>
+  <si>
+    <t>vo_player_escortbuilder</t>
+  </si>
+  <si>
+    <t>vo_player_escortminer</t>
+  </si>
+  <si>
+    <t>vo_player_findalephs</t>
+  </si>
+  <si>
+    <t>vo_player_findcarbonacous</t>
+  </si>
+  <si>
+    <t>vo_player_findenemy</t>
+  </si>
+  <si>
+    <t>vo_player_findhelium</t>
+  </si>
+  <si>
+    <t>vo_player_findprobes</t>
+  </si>
+  <si>
+    <t>vo_player_follow</t>
+  </si>
+  <si>
+    <t>vo_player_formonmywing</t>
+  </si>
+  <si>
+    <t>vo_player_formate</t>
+  </si>
+  <si>
+    <t>vo_player_getoffme</t>
+  </si>
+  <si>
+    <t>vo_player_gogogo</t>
+  </si>
+  <si>
+    <t>vo_player_headback</t>
+  </si>
+  <si>
+    <t>vo_player_holdup</t>
+  </si>
+  <si>
+    <t>vo_player_meetatjump</t>
+  </si>
+  <si>
+    <t>vo_player_regroup</t>
+  </si>
+  <si>
+    <t>vo_player_retreat</t>
+  </si>
+  <si>
+    <t>vo_player_stayontarget</t>
+  </si>
+  <si>
+    <t>vo_player_wait4signal</t>
+  </si>
+  <si>
+    <t>vo_player_alephmined</t>
+  </si>
+  <si>
+    <t>vo_player_basecaptured</t>
+  </si>
+  <si>
+    <t>vo_player_bomberwaiting</t>
+  </si>
+  <si>
+    <t>vo_player_capshipwaiting</t>
+  </si>
+  <si>
+    <t>Capship waiting for turrets.</t>
+  </si>
+  <si>
+    <t>Bomber waiting for turrets.</t>
+  </si>
+  <si>
+    <t>vo_player_enemyhasflag</t>
+  </si>
+  <si>
+    <t>vo_player_foundaleph</t>
+  </si>
+  <si>
+    <t>vo_player_foundhelium</t>
+  </si>
+  <si>
+    <t>vo_player_foundenemyships</t>
+  </si>
+  <si>
+    <t>vo_player_foundenemybase</t>
+  </si>
+  <si>
+    <t>vo_player_foundenemyconstruct</t>
+  </si>
+  <si>
+    <t>vo_player_foundenemyminer</t>
+  </si>
+  <si>
+    <t>vo_player_inboundenemytrans</t>
+  </si>
+  <si>
+    <t>vo_player_inboundenemyfight</t>
+  </si>
+  <si>
+    <t>vo_player_inboundenemycap</t>
+  </si>
+  <si>
+    <t>vo_player_inboundenemybomb</t>
+  </si>
+  <si>
+    <t>vo_player_inbound</t>
+  </si>
+  <si>
+    <t>vo_player_isourbaseclear</t>
+  </si>
+  <si>
+    <t>vo_player_minersaredead</t>
+  </si>
+  <si>
+    <t>vo_player_shieldsaredown</t>
+  </si>
+  <si>
+    <t>vo_player_haveshipyard</t>
+  </si>
+  <si>
+    <t>vo_player_havecapitols</t>
+  </si>
+  <si>
+    <t>vo_player_traitor</t>
+  </si>
+  <si>
+    <t>vo_player_acknowledged</t>
+  </si>
+  <si>
+    <t>vo_player_affirmative</t>
+  </si>
+  <si>
+    <t>vo_player_negative</t>
+  </si>
+  <si>
+    <t>vo_player_complete</t>
+  </si>
+  <si>
+    <t>vo_player_cool</t>
+  </si>
+  <si>
+    <t>vo_player_fiesty</t>
+  </si>
+  <si>
+    <t>vo_player_imonit</t>
+  </si>
+  <si>
+    <t>vo_player_onmyway</t>
+  </si>
+  <si>
+    <t>vo_player_imbusy</t>
+  </si>
+  <si>
+    <t>vo_player_objectivecomplete</t>
+  </si>
+  <si>
+    <t>vo_player_yourmad</t>
+  </si>
+  <si>
+    <t>vo_player_payloaddelivered</t>
+  </si>
+  <si>
+    <t>vo_player_almosthadyou</t>
+  </si>
+  <si>
+    <t>vo_player_comebackandfight</t>
+  </si>
+  <si>
+    <t>vo_player_deathbecomesyou</t>
+  </si>
+  <si>
+    <t>vo_player_shootingfish</t>
+  </si>
+  <si>
+    <t>vo_player_howdthatfeel</t>
+  </si>
+  <si>
+    <t>vo_player_likelambs</t>
+  </si>
+  <si>
+    <t>vo_player_outofammohmmm</t>
+  </si>
+  <si>
+    <t>vo_player_ripcordlastresort</t>
+  </si>
+  <si>
+    <t>vo_player_thanks</t>
+  </si>
+  <si>
+    <t>vo_player_yes</t>
+  </si>
+  <si>
+    <t>vo_player_udiedwithdignity</t>
+  </si>
+  <si>
+    <t>vo_player_uhavenohonor</t>
+  </si>
+  <si>
+    <t>vo_player_ullbesorry</t>
+  </si>
+  <si>
+    <t>vo_player_urgoodbut</t>
+  </si>
+  <si>
+    <t>vo_player_gimmesomething</t>
+  </si>
+  <si>
+    <t>vo_player_takingittothem</t>
+  </si>
+  <si>
+    <t>vo_player_needfuel</t>
+  </si>
+  <si>
+    <t>vo_player_needhelp</t>
+  </si>
+  <si>
+    <t>vo_player_needrepairs</t>
+  </si>
+  <si>
+    <t>vo_player_needammo</t>
+  </si>
+  <si>
+    <t>vo_player_needrescue</t>
+  </si>
+  <si>
+    <t>vo_player_cantholdem</t>
+  </si>
+  <si>
+    <t>vo_player_needbomber</t>
+  </si>
+  <si>
+    <t>vo_player_needbetterfighters</t>
+  </si>
+  <si>
+    <t>vo_player_needbetterwep</t>
+  </si>
+  <si>
+    <t>vo_player_needbase</t>
+  </si>
+  <si>
+    <t>vo_player_needcapital</t>
+  </si>
+  <si>
+    <t>vo_player_needfighter</t>
+  </si>
+  <si>
+    <t>vo_player_needcruiser</t>
+  </si>
+  <si>
+    <t>vo_player_needconstructor</t>
+  </si>
+  <si>
+    <t>vo_player_needdefender</t>
+  </si>
+  <si>
+    <t>vo_player_needfightersupport</t>
+  </si>
+  <si>
+    <t>vo_player_needinterceptor</t>
+  </si>
+  <si>
+    <t>vo_player_needminer</t>
+  </si>
+  <si>
+    <t>vo_player_needmoney</t>
+  </si>
+  <si>
+    <t>vo_player_needobjective</t>
+  </si>
+  <si>
+    <t>vo_player_needpickup</t>
+  </si>
+  <si>
+    <t>vo_player_needripcord</t>
+  </si>
+  <si>
+    <t>vo_player_needscout</t>
+  </si>
+  <si>
+    <t>vo_player_needstealth</t>
+  </si>
+  <si>
+    <t>vo_player_needtower</t>
+  </si>
+  <si>
+    <t>vo_player_needtransport</t>
+  </si>
+  <si>
+    <t>vo_player_needturret</t>
+  </si>
+  <si>
+    <t>vo_player_donateinvestor</t>
+  </si>
+  <si>
+    <t>vo_player_transportoutbound</t>
+  </si>
+  <si>
+    <t>vo_player_targetneeded</t>
+  </si>
+  <si>
+    <t>vo_player_shoot</t>
+  </si>
+  <si>
+    <t>vo_player_shootcommander</t>
+  </si>
+  <si>
+    <t>vo_player_joiningturret</t>
+  </si>
+  <si>
+    <t>vo_player_oops</t>
+  </si>
+  <si>
+    <t>vo_player_scoutaleph</t>
+  </si>
+  <si>
+    <t>vo_player_constructorlaunching</t>
+  </si>
+  <si>
+    <t>vo_player_minershammered</t>
+  </si>
+  <si>
+    <t>vo_player_findfreakinbase</t>
+  </si>
+  <si>
+    <t>vo_player_minerhunt</t>
+  </si>
+  <si>
+    <t>vo_player_staytogether</t>
+  </si>
+  <si>
+    <t>vo_player_ripcordhome</t>
+  </si>
+  <si>
+    <t>vo_player_laylow</t>
+  </si>
+  <si>
+    <t>vo_player_baseunderattack</t>
+  </si>
+  <si>
+    <t>vo_player_deployprobes</t>
+  </si>
+  <si>
+    <t>vo_player_deploymines</t>
+  </si>
+  <si>
+    <t>vo_player_repairstation</t>
+  </si>
+  <si>
+    <t>vo_player_findminer</t>
+  </si>
+  <si>
+    <t>vo_player_findsilicon</t>
+  </si>
+  <si>
+    <t>vo_player_finduranium</t>
+  </si>
+  <si>
+    <t>vo_player_nomoney</t>
+  </si>
+  <si>
+    <t>vo_player_surelyjoking</t>
+  </si>
+  <si>
+    <t>vo_player_hellyeah</t>
+  </si>
+  <si>
+    <t>vo_player_aintnothin</t>
+  </si>
+  <si>
+    <t>vo_player_yourecrazy</t>
+  </si>
+  <si>
+    <t>vo_player_thathurt</t>
+  </si>
+  <si>
+    <t>vo_player_slapinvestor</t>
+  </si>
+  <si>
+    <t>vo_player_ooohsorry</t>
+  </si>
+  <si>
+    <t>vo_player_wantapiece</t>
+  </si>
+  <si>
+    <t>vo_player_steadytiger</t>
+  </si>
+  <si>
+    <t>vo_player_reallife</t>
+  </si>
+  <si>
+    <t>vo_player_makeme</t>
+  </si>
+  <si>
+    <t>vo_player_ISPdrop</t>
+  </si>
+  <si>
+    <t>vo_player_everyoneready</t>
+  </si>
+  <si>
+    <t>vo_player_savingup</t>
+  </si>
+  <si>
+    <t>vo_player_startthegame</t>
+  </si>
+  <si>
+    <t>vo_player_holdurehorses</t>
+  </si>
+  <si>
+    <t>vo_player_coupleminutes</t>
+  </si>
+  <si>
+    <t>vo_player_justasec</t>
+  </si>
+  <si>
+    <t>Did IQs just drop sharply while I was away?</t>
+  </si>
+  <si>
+    <t>vo_player_niceweather</t>
+  </si>
+  <si>
+    <t>vo_player_whocommander</t>
+  </si>
+  <si>
+    <t>vo_player_changethemap</t>
+  </si>
+  <si>
+    <t>vo_player_imclueless</t>
+  </si>
+  <si>
+    <t>vo_player_itslate</t>
+  </si>
+  <si>
+    <t>vo_player_pitstop</t>
+  </si>
+  <si>
+    <t>vo_player_rematch</t>
+  </si>
+  <si>
+    <t>vo_player_changedsettings</t>
+  </si>
+  <si>
+    <t>vo_player_gototeamonly</t>
+  </si>
+  <si>
+    <t>vo_player_shallwebegin</t>
+  </si>
+  <si>
+    <t>vo_player_checkwing</t>
+  </si>
+  <si>
+    <t>vo_player_argh</t>
+  </si>
+  <si>
+    <t>vo_player_gunnerready</t>
+  </si>
+  <si>
+    <t>vo_player_yowie</t>
+  </si>
+  <si>
+    <t>vo_player_kinguniverse</t>
+  </si>
+  <si>
+    <t>vo_player_turretsattack</t>
+  </si>
+  <si>
+    <t>vo_player_gotcha</t>
+  </si>
+  <si>
+    <t>vo_player_thankslift</t>
+  </si>
+  <si>
+    <t>vo_player_comeondown</t>
+  </si>
+  <si>
+    <t>vo_player_heeheehee</t>
+  </si>
+  <si>
+    <t>vo_player_howwasthat</t>
+  </si>
+  <si>
+    <t>vo_player_imissed</t>
+  </si>
+  <si>
+    <t>vo_player_iquit</t>
+  </si>
+  <si>
+    <t>vo_player_misc9</t>
+  </si>
+  <si>
+    <t>vo_player_misc3</t>
+  </si>
+  <si>
+    <t>vo_player_misc27</t>
+  </si>
+  <si>
+    <t>vo_player_misc25</t>
+  </si>
+  <si>
+    <t>vo_player_misc21</t>
+  </si>
+  <si>
+    <t>vo_player_misc20</t>
+  </si>
+  <si>
+    <t>vo_player_misc2</t>
+  </si>
+  <si>
+    <t>vo_player_misc17</t>
+  </si>
+  <si>
+    <t>vo_player_ooooaaaa</t>
+  </si>
+  <si>
+    <t>vo_player_aaaaoooo</t>
+  </si>
+  <si>
+    <t>vo_player_scuseme</t>
+  </si>
+  <si>
+    <t>vo_player_what</t>
+  </si>
+  <si>
+    <t>vo_player_whatnow</t>
+  </si>
+  <si>
+    <t>vo_player_didyoucopy</t>
+  </si>
+  <si>
+    <t>vo_player_readchat</t>
+  </si>
+  <si>
+    <t>vo_player_roger</t>
+  </si>
+  <si>
+    <t>vo_ma_alephmineddroned</t>
+  </si>
+  <si>
+    <t>Check your wing assignment.</t>
+  </si>
+  <si>
+    <t>Hey, maybe you haven't been keeping up…</t>
+  </si>
+  <si>
+    <t>vo_ma_asseskicked</t>
+  </si>
+  <si>
+    <t>vo_ma_attackminefield</t>
+  </si>
+  <si>
+    <t>vo_ma_attacknanite</t>
+  </si>
+  <si>
+    <t>vo_ma_attackprobe</t>
+  </si>
+  <si>
+    <t>vo_ma_attackrescue</t>
+  </si>
+  <si>
+    <t>vo_ma_attackspecial</t>
+  </si>
+  <si>
+    <t>vo_ma_bugout</t>
+  </si>
+  <si>
+    <t>vo_ma_campaleph</t>
+  </si>
+  <si>
+    <t>vo_ma_campbase</t>
+  </si>
+  <si>
+    <t>vo_ma_campteleport</t>
+  </si>
+  <si>
+    <t>vo_ma_cantpodded</t>
+  </si>
+  <si>
+    <t>vo_ma_capturingbase</t>
+  </si>
+  <si>
+    <t>vo_ma_cloaked</t>
+  </si>
+  <si>
+    <t>vo_ma_dontdefend</t>
+  </si>
+  <si>
+    <t>vo_ma_defendspecial</t>
+  </si>
+  <si>
+    <t>vo_ma_deployrescue</t>
+  </si>
+  <si>
+    <t>vo_ma_dogmeat</t>
+  </si>
+  <si>
+    <t>vo_ma_iqs</t>
+  </si>
+  <si>
+    <t>vo_ma_dontkillpods</t>
+  </si>
+  <si>
+    <t>vo_ma_dontthinkso</t>
+  </si>
+  <si>
+    <t>vo_ma_evenup</t>
+  </si>
+  <si>
+    <t>vo_ma_findass</t>
+  </si>
+  <si>
+    <t>vo_ma_findcash</t>
+  </si>
+  <si>
+    <t>vo_ma_findconst</t>
+  </si>
+  <si>
+    <t>vo_ma_findscout</t>
+  </si>
+  <si>
+    <t>vo_ma_gameover</t>
+  </si>
+  <si>
+    <t>vo_ma_gametime</t>
+  </si>
+  <si>
+    <t>vo_ma_harshlanguage</t>
+  </si>
+  <si>
+    <t>vo_ma_hello</t>
+  </si>
+  <si>
+    <t>vo_ma_howfar</t>
+  </si>
+  <si>
+    <t>vo_ma_isalephmined</t>
+  </si>
+  <si>
+    <t>vo_ma_letsgo</t>
+  </si>
+  <si>
+    <t>vo_ma_mutiny</t>
+  </si>
+  <si>
+    <t>vo_ma_naniteslaunch</t>
+  </si>
+  <si>
+    <t>vo_ma_nanitesrip</t>
+  </si>
+  <si>
+    <t>vo_ma_needdefense</t>
+  </si>
+  <si>
+    <t>vo_ma_needmines</t>
+  </si>
+  <si>
+    <t>vo_ma_neednanonconst</t>
+  </si>
+  <si>
+    <t>vo_ma_needoffense</t>
+  </si>
+  <si>
+    <t>vo_ma_needrescue</t>
+  </si>
+  <si>
+    <t>vo_ma_needtpscout</t>
+  </si>
+  <si>
+    <t>vo_ma_noImeanit</t>
+  </si>
+  <si>
+    <t>vo_ma_notenough</t>
+  </si>
+  <si>
+    <t>vo_ma_notime</t>
+  </si>
+  <si>
+    <t>vo_ma_notseen</t>
+  </si>
+  <si>
+    <t>vo_ma_nowyouseeme</t>
+  </si>
+  <si>
+    <t>vo_ma_offturret</t>
+  </si>
+  <si>
+    <t>vo_ma_pickteams</t>
+  </si>
+  <si>
+    <t>vo_ma_pickuppods</t>
+  </si>
+  <si>
+    <t>vo_ma_pushop</t>
+  </si>
+  <si>
+    <t>vo_ma_ripped</t>
+  </si>
+  <si>
+    <t>vo_ma_ready</t>
+  </si>
+  <si>
+    <t>vo_ma_rush</t>
+  </si>
+  <si>
+    <t>vo_ma_scoutahead</t>
+  </si>
+  <si>
+    <t>vo_ma_settingssuck</t>
+  </si>
+  <si>
+    <t>vo_ma_spotted</t>
+  </si>
+  <si>
+    <t>vo_ma_stayoutofmiddle</t>
+  </si>
+  <si>
+    <t>vo_ma_stopgrin</t>
+  </si>
+  <si>
+    <t>vo_ma_theyexp</t>
+  </si>
+  <si>
+    <t>vo_ma_theysup</t>
+  </si>
+  <si>
+    <t>vo_ma_theytac</t>
+  </si>
+  <si>
+    <t>vo_ma_wonttolerate</t>
+  </si>
+  <si>
+    <t>vo_ma_leavemark</t>
+  </si>
+  <si>
+    <t>vo_ma_podded</t>
+  </si>
+  <si>
+    <t>vo_ma_stopspam</t>
+  </si>
+  <si>
+    <t>vo_ma_wakeup</t>
+  </si>
+  <si>
+    <t>vo_ma_pickuptech</t>
+  </si>
+  <si>
+    <t>vo_player_attackdefender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,6 +1933,21 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1117,7 +1990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1127,6 +2000,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1444,7 +2325,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,6 +2352,9 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1479,6 +2363,9 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1487,6 +2374,9 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1495,6 +2385,9 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1503,6 +2396,9 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1511,6 +2407,9 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1519,6 +2418,9 @@
       <c r="B8" s="1">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1527,6 +2429,9 @@
       <c r="B9" s="1">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1535,6 +2440,9 @@
       <c r="B10" s="1">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1542,6 +2450,9 @@
       </c>
       <c r="B11" s="1">
         <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1651,7 +2562,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B1:B1048576"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,18 +2584,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,53 +2611,74 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C5" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C6" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C7" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C8" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C9" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,165 +2688,228 @@
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C11" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C12" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C13" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C14" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C15" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -1921,7 +2922,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1943,130 +2944,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C3" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C4" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C5" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C6" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C7" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C8" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C9" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C10" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C11" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C12" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="C13" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C15" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -2078,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A38D6B9-182C-4D4C-B6B9-6F92919EFF00}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,34 +3150,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C2" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C3" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C4" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2138,6 +3199,9 @@
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C6" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2146,13 +3210,19 @@
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C7" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,6 +3232,9 @@
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C9" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2170,29 +3243,41 @@
       <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C11" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C12" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2202,85 +3287,118 @@
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C14" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
+      <c r="C15" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>72</v>
       </c>
       <c r="B20" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
       <c r="B22" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B23" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -2293,296 +3411,399 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="43.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
+    <col min="3" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B29" s="8">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B30" s="8">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B31" s="8">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B32" s="8">
+        <v>7</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B33" s="8">
+        <v>8</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B34" s="8">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>331</v>
-      </c>
-      <c r="B29" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>332</v>
-      </c>
-      <c r="B30" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>333</v>
-      </c>
-      <c r="B31" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>334</v>
-      </c>
-      <c r="B32" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>335</v>
-      </c>
-      <c r="B33" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>336</v>
-      </c>
-      <c r="B34" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>337</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="B35" s="8">
         <v>0</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -2595,7 +3816,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,6 +3843,9 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2630,6 +3854,9 @@
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C3" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2638,6 +3865,9 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2646,6 +3876,9 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C5" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2654,6 +3887,9 @@
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C6" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2662,6 +3898,9 @@
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C7" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2670,6 +3909,9 @@
       <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C8" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2678,6 +3920,9 @@
       <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C9" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2686,6 +3931,9 @@
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C10" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2694,6 +3942,9 @@
       <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C11" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2702,6 +3953,9 @@
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C12" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2710,6 +3964,9 @@
       <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C13" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2718,6 +3975,9 @@
       <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C14" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2726,6 +3986,9 @@
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C15" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2734,29 +3997,41 @@
       <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -2769,7 +4044,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,6 +4071,9 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2804,6 +4082,9 @@
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C3" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2812,6 +4093,9 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2820,6 +4104,9 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C5" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2828,6 +4115,9 @@
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C6" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2836,6 +4126,9 @@
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C7" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2844,6 +4137,9 @@
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C8" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2852,6 +4148,9 @@
       <c r="B9" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="C9" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2860,6 +4159,9 @@
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C10" t="s">
+        <v>486</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2868,6 +4170,9 @@
       <c r="B11" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C11" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2876,6 +4181,9 @@
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C12" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2884,6 +4192,9 @@
       <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C13" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2892,6 +4203,9 @@
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C14" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2900,6 +4214,9 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C15" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2908,85 +4225,118 @@
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +4349,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3026,6 +4376,9 @@
       <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C2" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3034,6 +4387,9 @@
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C3" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3042,6 +4398,9 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3050,6 +4409,9 @@
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3058,6 +4420,9 @@
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C6" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3066,6 +4431,9 @@
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C7" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3074,6 +4442,9 @@
       <c r="B8" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C8" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3082,6 +4453,9 @@
       <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C9" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3090,6 +4464,9 @@
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C10" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3098,6 +4475,9 @@
       <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C11" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3106,6 +4486,9 @@
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C12" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3114,6 +4497,9 @@
       <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C13" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3122,6 +4508,9 @@
       <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C14" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3130,6 +4519,9 @@
       <c r="B15" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="C15" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3138,53 +4530,74 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>112</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="1">
         <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +4610,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,6 +4637,9 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3232,6 +4648,9 @@
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3240,6 +4659,9 @@
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C4" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3248,6 +4670,9 @@
       <c r="B5" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C5" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3256,6 +4681,9 @@
       <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C6" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3264,6 +4692,9 @@
       <c r="B7" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C7" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3272,6 +4703,9 @@
       <c r="B8" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="C8" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3280,6 +4714,9 @@
       <c r="B9" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C9" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3288,6 +4725,9 @@
       <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C10" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3296,6 +4736,9 @@
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C11" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3304,6 +4747,9 @@
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C12" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3311,6 +4757,9 @@
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -3322,8 +4771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AED6894-989B-4668-BBB9-610747A477AB}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3350,6 +4799,9 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3358,6 +4810,9 @@
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C3" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -3366,6 +4821,9 @@
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -3374,6 +4832,9 @@
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C5" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3382,6 +4843,9 @@
       <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C6" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3390,6 +4854,9 @@
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C7" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3398,6 +4865,9 @@
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C8" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3406,6 +4876,9 @@
       <c r="B9" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C9" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3414,6 +4887,9 @@
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C10" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3422,6 +4898,9 @@
       <c r="B11" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="C11" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3430,6 +4909,9 @@
       <c r="B12" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="C12" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3438,6 +4920,9 @@
       <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C13" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3446,6 +4931,9 @@
       <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C14" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3454,6 +4942,9 @@
       <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C15" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3462,161 +4953,222 @@
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>143</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>144</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>145</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>146</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>554</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B32" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B33" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B34" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B35" s="1">
         <v>8</v>
       </c>
+      <c r="C35" t="s">
+        <v>373</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3624,8 +5176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F57425-0BA3-4549-ABF3-063F7838B848}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3647,202 +5199,277 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C3" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C5" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C6" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C7" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C8" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C9" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="C10" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C11" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C12" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C13" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C14" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C15" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -3854,8 +5481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019BD47A-1EFF-4EC8-BC61-5FB9E801836E}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,218 +5504,299 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C4" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C5" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C6" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C7" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
+      <c r="C8" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C9" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C10" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C11" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="C12" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C13" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C14" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C15" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>210</v>
+        <v>555</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -4098,10 +5806,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96F4C61-6E15-42F8-BD13-18F3F3C768D0}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4123,258 +5831,343 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C4" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C6" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C8" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="C9" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C10" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C11" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C12" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C13" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C14" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="C15" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>513</v>
       </c>
       <c r="B28" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B29" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B30" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B31" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B32" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>243</v>
-      </c>
-      <c r="B33" s="1">
-        <v>8</v>
+      <c r="C32" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/QuickChatCommands.xlsx
+++ b/Doc/QuickChatCommands.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Source\Repos\AllegianceForms\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Source\Repos\AllegianceForms\AllegianceForms\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="7965" firstSheet="10" activeTab="12" xr2:uid="{D8A1548F-FC7A-49AA-BDC4-CE3A13CE94A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14985" windowHeight="7965" activeTab="13" xr2:uid="{D8A1548F-FC7A-49AA-BDC4-CE3A13CE94A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Info" sheetId="11" r:id="rId11"/>
     <sheet name="Tactical" sheetId="12" r:id="rId12"/>
     <sheet name="Other" sheetId="13" r:id="rId13"/>
+    <sheet name="QuickChatCommands" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="626">
   <si>
     <t>Quick Comms</t>
   </si>
@@ -1908,6 +1909,12 @@
   </si>
   <si>
     <t>vo_player_attackdefender</t>
+  </si>
+  <si>
+    <t>MenuId</t>
+  </si>
+  <si>
+    <t>OpenMenuId</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2332,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="A12:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,7 +2569,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A2" sqref="A2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,7 +2929,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3127,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A38D6B9-182C-4D4C-B6B9-6F92919EFF00}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3410,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F715C58-66C3-4060-87CD-D9619E12EA65}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3811,12 +3818,4475 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D285913B-F73D-4EC9-8F3F-D77852CF9443}">
+  <dimension ref="A1:E317"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="1">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D98" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>129</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>130</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>131</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D102" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>136</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D107" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>137</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D108" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>138</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>139</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>140</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>141</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D113" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>145</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>554</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D121" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>150</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="1">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>155</v>
+      </c>
+      <c r="C127" s="1">
+        <v>4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>156</v>
+      </c>
+      <c r="C128" s="1">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="1">
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="1">
+        <v>7</v>
+      </c>
+      <c r="D130" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>159</v>
+      </c>
+      <c r="C131" s="1">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D133" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>184</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>168</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>169</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D138" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>6</v>
+      </c>
+      <c r="B139" t="s">
+        <v>170</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>171</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D140" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>172</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>173</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D142" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>6</v>
+      </c>
+      <c r="B143" t="s">
+        <v>174</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D143" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>175</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D144" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>177</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D146" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>178</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D148" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>180</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D149" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>181</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D150" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>182</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D151" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>183</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D153" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>163</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>161</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>162</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D156" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>185</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>186</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" t="s">
+        <v>187</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>188</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>189</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D161" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>190</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D162" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>7</v>
+      </c>
+      <c r="B163" t="s">
+        <v>191</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>192</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D164" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>193</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D165" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>194</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D167" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>195</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>196</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D169" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>197</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>198</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D171" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>199</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D172" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>200</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D173" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>201</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D174" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>202</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D175" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>203</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D176" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>204</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D177" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>205</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D178" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" t="s">
+        <v>206</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>207</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D180" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>208</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>555</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D182" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>209</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>8</v>
+      </c>
+      <c r="B184" t="s">
+        <v>211</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>212</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>8</v>
+      </c>
+      <c r="B186" t="s">
+        <v>240</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>8</v>
+      </c>
+      <c r="B187" t="s">
+        <v>213</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>8</v>
+      </c>
+      <c r="B188" t="s">
+        <v>214</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D188" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>8</v>
+      </c>
+      <c r="B189" t="s">
+        <v>215</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D189" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>8</v>
+      </c>
+      <c r="B190" t="s">
+        <v>216</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>8</v>
+      </c>
+      <c r="B191" t="s">
+        <v>217</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D191" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>8</v>
+      </c>
+      <c r="B192" t="s">
+        <v>218</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D192" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>219</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D193" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>220</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" t="s">
+        <v>221</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D195" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" t="s">
+        <v>222</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s">
+        <v>223</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D197" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>8</v>
+      </c>
+      <c r="B198" t="s">
+        <v>224</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" t="s">
+        <v>225</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D199" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" t="s">
+        <v>226</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D200" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>8</v>
+      </c>
+      <c r="B201" t="s">
+        <v>227</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D201" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>8</v>
+      </c>
+      <c r="B202" t="s">
+        <v>228</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D202" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203" t="s">
+        <v>229</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D203" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>8</v>
+      </c>
+      <c r="B204" t="s">
+        <v>230</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D204" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>8</v>
+      </c>
+      <c r="B205" t="s">
+        <v>231</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D205" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>8</v>
+      </c>
+      <c r="B206" t="s">
+        <v>232</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D206" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>233</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D207" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
+        <v>234</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>8</v>
+      </c>
+      <c r="B209" t="s">
+        <v>235</v>
+      </c>
+      <c r="C209" s="1">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>513</v>
+      </c>
+      <c r="C210" s="1">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>236</v>
+      </c>
+      <c r="C211" s="1">
+        <v>4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>8</v>
+      </c>
+      <c r="B212" t="s">
+        <v>237</v>
+      </c>
+      <c r="C212" s="1">
+        <v>5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>8</v>
+      </c>
+      <c r="B213" t="s">
+        <v>238</v>
+      </c>
+      <c r="C213" s="1">
+        <v>6</v>
+      </c>
+      <c r="D213" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>8</v>
+      </c>
+      <c r="B214" t="s">
+        <v>239</v>
+      </c>
+      <c r="C214" s="1">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
+        <v>241</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D215" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>9</v>
+      </c>
+      <c r="B216" t="s">
+        <v>242</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
+        <v>111</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D217" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>9</v>
+      </c>
+      <c r="B218" t="s">
+        <v>243</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>9</v>
+      </c>
+      <c r="B219" t="s">
+        <v>244</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D219" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>9</v>
+      </c>
+      <c r="B220" t="s">
+        <v>245</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D220" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>9</v>
+      </c>
+      <c r="B221" t="s">
+        <v>248</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D221" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>9</v>
+      </c>
+      <c r="B222" t="s">
+        <v>246</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D222" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>9</v>
+      </c>
+      <c r="B223" t="s">
+        <v>247</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D223" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>9</v>
+      </c>
+      <c r="B224" t="s">
+        <v>112</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D224" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>9</v>
+      </c>
+      <c r="B225" t="s">
+        <v>249</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D225" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>9</v>
+      </c>
+      <c r="B226" t="s">
+        <v>250</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D226" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
+        <v>251</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D227" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>9</v>
+      </c>
+      <c r="B228" t="s">
+        <v>252</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D228" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>9</v>
+      </c>
+      <c r="B229" t="s">
+        <v>253</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D229" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>9</v>
+      </c>
+      <c r="B230" t="s">
+        <v>254</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D230" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>9</v>
+      </c>
+      <c r="B231" t="s">
+        <v>255</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>9</v>
+      </c>
+      <c r="B232" t="s">
+        <v>256</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D232" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>9</v>
+      </c>
+      <c r="B233" t="s">
+        <v>257</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D233" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>9</v>
+      </c>
+      <c r="B234" t="s">
+        <v>258</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D234" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>9</v>
+      </c>
+      <c r="B235" t="s">
+        <v>259</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D235" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>9</v>
+      </c>
+      <c r="B236" t="s">
+        <v>260</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D236" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>9</v>
+      </c>
+      <c r="B237" t="s">
+        <v>261</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D237" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>9</v>
+      </c>
+      <c r="B238" t="s">
+        <v>262</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D238" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>9</v>
+      </c>
+      <c r="B239" t="s">
+        <v>263</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D239" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>9</v>
+      </c>
+      <c r="B240" t="s">
+        <v>264</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D240" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>9</v>
+      </c>
+      <c r="B241" t="s">
+        <v>265</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1</v>
+      </c>
+      <c r="D241" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>9</v>
+      </c>
+      <c r="B242" t="s">
+        <v>266</v>
+      </c>
+      <c r="C242" s="1">
+        <v>2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>9</v>
+      </c>
+      <c r="B243" t="s">
+        <v>268</v>
+      </c>
+      <c r="C243" s="1">
+        <v>3</v>
+      </c>
+      <c r="D243" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>9</v>
+      </c>
+      <c r="B244" t="s">
+        <v>267</v>
+      </c>
+      <c r="C244" s="1">
+        <v>4</v>
+      </c>
+      <c r="D244" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>10</v>
+      </c>
+      <c r="B245" t="s">
+        <v>269</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D245" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>10</v>
+      </c>
+      <c r="B246" t="s">
+        <v>271</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D246" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>10</v>
+      </c>
+      <c r="B247" t="s">
+        <v>270</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D247" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>10</v>
+      </c>
+      <c r="B248" t="s">
+        <v>272</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D248" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>10</v>
+      </c>
+      <c r="B249" t="s">
+        <v>273</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D249" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>10</v>
+      </c>
+      <c r="B250" t="s">
+        <v>274</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D250" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>10</v>
+      </c>
+      <c r="B251" t="s">
+        <v>275</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D251" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>276</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D252" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>10</v>
+      </c>
+      <c r="B253" t="s">
+        <v>277</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D253" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>10</v>
+      </c>
+      <c r="B254" t="s">
+        <v>278</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D254" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>10</v>
+      </c>
+      <c r="B255" t="s">
+        <v>279</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D255" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>10</v>
+      </c>
+      <c r="B256" t="s">
+        <v>149</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D256" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>10</v>
+      </c>
+      <c r="B257" t="s">
+        <v>280</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D257" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>10</v>
+      </c>
+      <c r="B258" t="s">
+        <v>281</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D258" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>10</v>
+      </c>
+      <c r="B259" t="s">
+        <v>282</v>
+      </c>
+      <c r="C259" s="1">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>10</v>
+      </c>
+      <c r="B260" t="s">
+        <v>283</v>
+      </c>
+      <c r="C260" s="1">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>11</v>
+      </c>
+      <c r="B261" t="s">
+        <v>298</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D261" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>11</v>
+      </c>
+      <c r="B262" t="s">
+        <v>284</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D262" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>11</v>
+      </c>
+      <c r="B263" t="s">
+        <v>285</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D263" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>11</v>
+      </c>
+      <c r="B264" t="s">
+        <v>286</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D264" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>11</v>
+      </c>
+      <c r="B265" t="s">
+        <v>74</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D265" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>11</v>
+      </c>
+      <c r="B266" t="s">
+        <v>67</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D266" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>11</v>
+      </c>
+      <c r="B267" t="s">
+        <v>287</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D267" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>11</v>
+      </c>
+      <c r="B268" t="s">
+        <v>69</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D268" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>11</v>
+      </c>
+      <c r="B269" t="s">
+        <v>80</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D269" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>11</v>
+      </c>
+      <c r="B270" t="s">
+        <v>288</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D270" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>11</v>
+      </c>
+      <c r="B271" t="s">
+        <v>289</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D271" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>11</v>
+      </c>
+      <c r="B272" t="s">
+        <v>290</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D272" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>11</v>
+      </c>
+      <c r="B273" t="s">
+        <v>81</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D273" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>11</v>
+      </c>
+      <c r="B274" t="s">
+        <v>291</v>
+      </c>
+      <c r="C274" s="1">
+        <v>1</v>
+      </c>
+      <c r="D274" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>11</v>
+      </c>
+      <c r="B275" t="s">
+        <v>292</v>
+      </c>
+      <c r="C275" s="1">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>11</v>
+      </c>
+      <c r="B276" t="s">
+        <v>293</v>
+      </c>
+      <c r="C276" s="1">
+        <v>3</v>
+      </c>
+      <c r="D276" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>11</v>
+      </c>
+      <c r="B277" t="s">
+        <v>294</v>
+      </c>
+      <c r="C277" s="1">
+        <v>4</v>
+      </c>
+      <c r="D277" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>11</v>
+      </c>
+      <c r="B278" t="s">
+        <v>295</v>
+      </c>
+      <c r="C278" s="1">
+        <v>5</v>
+      </c>
+      <c r="D278" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>11</v>
+      </c>
+      <c r="B279" t="s">
+        <v>72</v>
+      </c>
+      <c r="C279" s="1">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>11</v>
+      </c>
+      <c r="B280" t="s">
+        <v>296</v>
+      </c>
+      <c r="C280" s="1">
+        <v>7</v>
+      </c>
+      <c r="D280" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>11</v>
+      </c>
+      <c r="B281" t="s">
+        <v>76</v>
+      </c>
+      <c r="C281" s="1">
+        <v>8</v>
+      </c>
+      <c r="D281" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>11</v>
+      </c>
+      <c r="B282" t="s">
+        <v>253</v>
+      </c>
+      <c r="C282" s="1">
+        <v>9</v>
+      </c>
+      <c r="D282" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>11</v>
+      </c>
+      <c r="B283" t="s">
+        <v>297</v>
+      </c>
+      <c r="C283" s="1">
+        <v>0</v>
+      </c>
+      <c r="D283" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>12</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D284" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>12</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D285" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>12</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D286" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>12</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D287" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>12</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D288" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>12</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>12</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D290" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>12</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D291" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>12</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D292" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>12</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>12</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D294" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>12</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>12</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D296" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>12</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D297" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>12</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D298" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>12</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D299" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>12</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D300" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>12</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D301" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>12</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D302" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>12</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D303" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>12</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>12</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D305" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>12</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D306" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>12</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>12</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C308" s="8">
+        <v>1</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>12</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C309" s="8">
+        <v>2</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>12</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C310" s="8">
+        <v>3</v>
+      </c>
+      <c r="D310" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>12</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C311" s="8">
+        <v>4</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>12</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C312" s="8">
+        <v>5</v>
+      </c>
+      <c r="D312" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>12</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C313" s="8">
+        <v>6</v>
+      </c>
+      <c r="D313" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>12</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C314" s="8">
+        <v>7</v>
+      </c>
+      <c r="D314" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>12</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C315" s="8">
+        <v>8</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>12</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C316" s="8">
+        <v>9</v>
+      </c>
+      <c r="D316" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>12</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C317" s="8">
+        <v>0</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211935E4-812D-43A3-B394-9CA0C43427D5}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A2" sqref="A2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4044,7 +8514,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,7 +8819,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4610,7 +9080,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,7 +9242,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A4" sqref="A4:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5177,7 +9647,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A2" sqref="A2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5482,7 +9952,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A2" sqref="A2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5809,7 +10279,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="A2" sqref="A2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
